--- a/Excel Data/BankersChequeReport_IBG.xlsx
+++ b/Excel Data/BankersChequeReport_IBG.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>value:1:1:1</t>
+  </si>
+  <si>
+    <t>BC.ICFKHI0000001</t>
   </si>
 </sst>
 </file>
@@ -342,7 +345,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" activeCellId="1" sqref="O5 I19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -353,8 +356,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20230104</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
